--- a/exported/workers_price_in_public_construction.xlsx
+++ b/exported/workers_price_in_public_construction.xlsx
@@ -49,19 +49,59 @@
     <t>#property&lt;-- プロパティの名前またはURI</t>
   </si>
   <si>
-    <t>day_of_issue</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://imi.ipa.go.jp/ns/200/#イベントスケジュール_開始日</t>
+    </r>
   </si>
   <si>
-    <t>day_of_expire</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://imi.ipa.go.jp/ns/200/#イベントスケジュール_終了日</t>
+    </r>
   </si>
   <si>
-    <t>workers_name</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://schema.org/jobTitle</t>
+    </r>
   </si>
   <si>
-    <t>prefecture</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://imi.ipa.go.jp/ns/200/#定型住所_都道府県</t>
+    </r>
   </si>
   <si>
-    <t>price_a_day</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://imi.ipa.go.jp/ns/200/#金額_値</t>
+    </r>
   </si>
   <si>
     <t>#object_type_xsd&lt;-- プロパティのデータ形式</t>
@@ -401,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -428,13 +468,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u val="single"/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -464,13 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -694,40 +740,40 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -750,6 +796,7 @@
       <rgbColor rgb="ffd8d8d8"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffebf1de"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffc0504d"/>
       <rgbColor rgb="fff2dddc"/>
       <rgbColor rgb="ff4f81bd"/>
@@ -47790,6 +47837,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="C6" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="D6" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="E6" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="F6" r:id="rId5" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>
